--- a/freeks研修　動画より/Freeks研修用.xlsx
+++ b/freeks研修　動画より/Freeks研修用.xlsx
@@ -8,15 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LetsEngineer\curriculum\freeks研修　動画より\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32018A3E-BF92-40E2-999F-71C9306EBE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644C2662-86C8-4D89-B7A8-C5AC7EC6BB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13680" yWindow="6990" windowWidth="13980" windowHeight="11340" activeTab="1" xr2:uid="{A8B3A75F-C8EA-4B79-B716-A281FE200CF9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A8B3A75F-C8EA-4B79-B716-A281FE200CF9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="82">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -198,8 +203,164 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>A02</t>
+    <t>A03</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行ラベル</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>(空白)</t>
+  </si>
+  <si>
+    <t>商品１</t>
+  </si>
+  <si>
+    <t>商品１０</t>
+  </si>
+  <si>
+    <t>商品２</t>
+  </si>
+  <si>
+    <t>商品３</t>
+  </si>
+  <si>
+    <t>商品４</t>
+  </si>
+  <si>
+    <t>商品５</t>
+  </si>
+  <si>
+    <t>商品６</t>
+  </si>
+  <si>
+    <t>商品７</t>
+  </si>
+  <si>
+    <t>商品８</t>
+  </si>
+  <si>
+    <t>商品９</t>
+  </si>
+  <si>
+    <t>合計 / 金額</t>
+  </si>
+  <si>
+    <t>合計 / 単価</t>
+  </si>
+  <si>
+    <t>合計 / 数量</t>
+  </si>
+  <si>
+    <t>商品１ 合計 / 数量</t>
+  </si>
+  <si>
+    <t>商品１ 合計 / 単価</t>
+  </si>
+  <si>
+    <t>商品１ 合計 / 金額</t>
+  </si>
+  <si>
+    <t>商品１０ 合計 / 数量</t>
+  </si>
+  <si>
+    <t>商品１０ 合計 / 単価</t>
+  </si>
+  <si>
+    <t>商品１０ 合計 / 金額</t>
+  </si>
+  <si>
+    <t>商品２ 合計 / 数量</t>
+  </si>
+  <si>
+    <t>商品２ 合計 / 単価</t>
+  </si>
+  <si>
+    <t>商品２ 合計 / 金額</t>
+  </si>
+  <si>
+    <t>商品３ 合計 / 数量</t>
+  </si>
+  <si>
+    <t>商品３ 合計 / 単価</t>
+  </si>
+  <si>
+    <t>商品３ 合計 / 金額</t>
+  </si>
+  <si>
+    <t>商品４ 合計 / 数量</t>
+  </si>
+  <si>
+    <t>商品４ 合計 / 単価</t>
+  </si>
+  <si>
+    <t>商品４ 合計 / 金額</t>
+  </si>
+  <si>
+    <t>商品５ 合計 / 数量</t>
+  </si>
+  <si>
+    <t>商品５ 合計 / 単価</t>
+  </si>
+  <si>
+    <t>商品５ 合計 / 金額</t>
+  </si>
+  <si>
+    <t>商品６ 合計 / 数量</t>
+  </si>
+  <si>
+    <t>商品６ 合計 / 単価</t>
+  </si>
+  <si>
+    <t>商品６ 合計 / 金額</t>
+  </si>
+  <si>
+    <t>商品７ 合計 / 数量</t>
+  </si>
+  <si>
+    <t>商品７ 合計 / 単価</t>
+  </si>
+  <si>
+    <t>商品７ 合計 / 金額</t>
+  </si>
+  <si>
+    <t>商品８ 合計 / 数量</t>
+  </si>
+  <si>
+    <t>商品８ 合計 / 単価</t>
+  </si>
+  <si>
+    <t>商品８ 合計 / 金額</t>
+  </si>
+  <si>
+    <t>商品９ 合計 / 数量</t>
+  </si>
+  <si>
+    <t>商品９ 合計 / 単価</t>
+  </si>
+  <si>
+    <t>商品９ 合計 / 金額</t>
+  </si>
+  <si>
+    <t>(空白) 合計 / 数量</t>
+  </si>
+  <si>
+    <t>(空白) 合計 / 単価</t>
+  </si>
+  <si>
+    <t>(空白) 合計 / 金額</t>
+  </si>
+  <si>
+    <t>全体の 合計 / 数量</t>
+  </si>
+  <si>
+    <t>全体の 合計 / 単価</t>
+  </si>
+  <si>
+    <t>全体の 合計 / 金額</t>
   </si>
 </sst>
 </file>
@@ -268,7 +429,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -281,11 +442,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -296,6 +483,544 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="久保木すざく" refreshedDate="45286.925475115742" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="13" xr:uid="{2F12A7A3-EC61-420E-8469-B7B9259E205A}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:F14" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="No" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="10" count="13">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <n v="10"/>
+        <s v="合計"/>
+        <s v="平均"/>
+        <s v="個数"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="商品コード" numFmtId="0">
+      <sharedItems containsBlank="1" count="11">
+        <s v="A01"/>
+        <s v="A02"/>
+        <s v="A03"/>
+        <s v="A04"/>
+        <s v="A05"/>
+        <s v="A06"/>
+        <s v="A07"/>
+        <s v="A08"/>
+        <s v="A09"/>
+        <s v="A10"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="商品名" numFmtId="0">
+      <sharedItems containsBlank="1" count="11">
+        <s v="商品１"/>
+        <s v="商品２"/>
+        <s v="商品３"/>
+        <s v="商品４"/>
+        <s v="商品５"/>
+        <s v="商品６"/>
+        <s v="商品７"/>
+        <s v="商品８"/>
+        <s v="商品９"/>
+        <s v="商品１０"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="単価" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="100" maxValue="2000"/>
+    </cacheField>
+    <cacheField name="数量" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="3" maxValue="135"/>
+    </cacheField>
+    <cacheField name="金額" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="10" maxValue="72859"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="13">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="100"/>
+    <n v="50"/>
+    <n v="5000"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="200"/>
+    <n v="10"/>
+    <n v="2000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="500"/>
+    <n v="3"/>
+    <n v="1500"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="2000"/>
+    <n v="6"/>
+    <n v="12000"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="450"/>
+    <n v="6"/>
+    <n v="2700"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="666"/>
+    <n v="9"/>
+    <n v="5994"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="777"/>
+    <n v="3"/>
+    <n v="2331"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="7"/>
+    <n v="901"/>
+    <n v="34"/>
+    <n v="30634"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+    <n v="750"/>
+    <n v="10"/>
+    <n v="7500"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <n v="800"/>
+    <n v="4"/>
+    <n v="3200"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <m/>
+    <n v="135"/>
+    <n v="72859"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="10"/>
+    <m/>
+    <n v="13.5"/>
+    <n v="7285.9"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="10"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <n v="10"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{373D4C48-DCEB-49AE-A0D8-D0D813D5EADC}" name="ピボットテーブル1" cacheId="4" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B94" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="14">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="12"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="2"/>
+    <field x="1"/>
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="91">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2" i="1">
+      <x v="1"/>
+    </i>
+    <i r="2" i="2">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x/>
+    </i>
+    <i t="default" i="1">
+      <x/>
+    </i>
+    <i t="default" i="2">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2" i="1">
+      <x v="1"/>
+    </i>
+    <i r="2" i="2">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i t="default" i="1">
+      <x v="1"/>
+    </i>
+    <i t="default" i="2">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2" i="1">
+      <x v="1"/>
+    </i>
+    <i r="2" i="2">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
+    </i>
+    <i t="default" i="1">
+      <x v="2"/>
+    </i>
+    <i t="default" i="2">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2" i="1">
+      <x v="1"/>
+    </i>
+    <i r="2" i="2">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="3"/>
+    </i>
+    <i t="default" i="1">
+      <x v="3"/>
+    </i>
+    <i t="default" i="2">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2" i="1">
+      <x v="1"/>
+    </i>
+    <i r="2" i="2">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="4"/>
+    </i>
+    <i t="default" i="1">
+      <x v="4"/>
+    </i>
+    <i t="default" i="2">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2" i="1">
+      <x v="1"/>
+    </i>
+    <i r="2" i="2">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="5"/>
+    </i>
+    <i t="default" i="1">
+      <x v="5"/>
+    </i>
+    <i t="default" i="2">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2" i="1">
+      <x v="1"/>
+    </i>
+    <i r="2" i="2">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="6"/>
+    </i>
+    <i t="default" i="1">
+      <x v="6"/>
+    </i>
+    <i t="default" i="2">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2" i="1">
+      <x v="1"/>
+    </i>
+    <i r="2" i="2">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="7"/>
+    </i>
+    <i t="default" i="1">
+      <x v="7"/>
+    </i>
+    <i t="default" i="2">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2" i="1">
+      <x v="1"/>
+    </i>
+    <i r="2" i="2">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="8"/>
+    </i>
+    <i t="default" i="1">
+      <x v="8"/>
+    </i>
+    <i t="default" i="2">
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2" i="1">
+      <x v="1"/>
+    </i>
+    <i r="2" i="2">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="9"/>
+    </i>
+    <i t="default" i="1">
+      <x v="9"/>
+    </i>
+    <i t="default" i="2">
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2" i="1">
+      <x v="1"/>
+    </i>
+    <i r="2" i="2">
+      <x v="2"/>
+    </i>
+    <i t="default">
+      <x v="10"/>
+    </i>
+    <i t="default" i="1">
+      <x v="10"/>
+    </i>
+    <i t="default" i="2">
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+    <i t="grand" i="2">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="合計 / 数量" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="合計 / 単価" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="合計 / 金額" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -594,12 +1319,716 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0190BA-6091-4A73-A28A-2F8EF5ADB6FF}">
+  <dimension ref="A3:B94"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="7">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="7">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="7">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="7">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="7"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="7"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="7">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="7">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="7"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="7">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="7">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="7">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="7">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" s="7"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" s="7"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" s="7">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" s="7">
+        <v>5994</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" s="7">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" s="7">
+        <v>5994</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60" s="7"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A61" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" s="7"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A62" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B62" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A63" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63" s="7">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A64" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64" s="7">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A66" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" s="7">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" s="7">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68" s="7"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" s="7"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B70" s="7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A71" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B71" s="7">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A72" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B72" s="7">
+        <v>30634</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A73" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B73" s="7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A74" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74" s="7">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A75" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B75" s="7">
+        <v>30634</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A76" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B76" s="7"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A77" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B77" s="7"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A78" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B78" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A79" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B79" s="7">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A80" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B80" s="7">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B81" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B82" s="7">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A83" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B83" s="7">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A84" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B84" s="7"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A85" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B85" s="7"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A86" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B86" s="7">
+        <v>148.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A87" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B87" s="7"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A88" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B88" s="7">
+        <v>80154.899999999994</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A89" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B89" s="7">
+        <v>148.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A90" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B90" s="7"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A91" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B91" s="7">
+        <v>80154.899999999994</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A92" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B92" s="7">
+        <v>283.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A93" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B93" s="7">
+        <v>7144</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A94" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B94" s="7">
+        <v>153013.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA126BA-DB82-40D6-966B-E54C17D8E6D6}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -885,12 +2314,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83380829-20AA-46AE-934E-A2193C33FC0E}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -927,11 +2356,11 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="str">
-        <f>IFERROR(VLOOKUP($B2,Sheet1!$B2:$E2,2,FALSE),"")</f>
+        <f>IF($B2="","",(VLOOKUP($B2,Sheet1!$B2:$E2,2,FALSE)))</f>
         <v>商品１</v>
       </c>
       <c r="D2" s="1">
-        <f>IFERROR(VLOOKUP($B2,Sheet1!$B2:$E2,3,FALSE),"")</f>
+        <f>IF($B2="","",(VLOOKUP($B2,Sheet1!$B2:$E2,3,FALSE)))</f>
         <v>100</v>
       </c>
       <c r="E2" s="1">
@@ -939,8 +2368,8 @@
         <v>50</v>
       </c>
       <c r="F2" s="1">
-        <f>D2*E2</f>
-        <v>5000</v>
+        <f>IF(B2="","",SUM(D2:E2))</f>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -948,10 +2377,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="str">
-        <f>IFERROR(VLOOKUP($B3,Sheet1!$B3:$E3,2,FALSE),"")</f>
+        <f>IF($B3="","",(VLOOKUP($B3,Sheet1!$B3:$E3,2,FALSE)))</f>
         <v>商品２</v>
       </c>
       <c r="D3" s="1">
@@ -963,8 +2392,8 @@
         <v>10</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F11" si="0">D3*E3</f>
-        <v>2000</v>
+        <f t="shared" ref="F3:F11" si="0">IF(B3="","",SUM(D3:E3))</f>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -975,7 +2404,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="str">
-        <f>IFERROR(VLOOKUP($B4,Sheet1!$B4:$E4,2,FALSE),"")</f>
+        <f>IF($B4="","",(VLOOKUP($B4,Sheet1!$B4:$E4,2,FALSE)))</f>
         <v>商品３</v>
       </c>
       <c r="D4" s="1">
@@ -988,7 +2417,7 @@
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
@@ -999,7 +2428,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f>IFERROR(VLOOKUP($B5,Sheet1!$B5:$E5,2,FALSE),"")</f>
+        <f>IF($B5="","",(VLOOKUP($B5,Sheet1!$B5:$E5,2,FALSE)))</f>
         <v>商品４</v>
       </c>
       <c r="D5" s="1">
@@ -1012,7 +2441,7 @@
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -1023,7 +2452,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="1" t="str">
-        <f>IFERROR(VLOOKUP($B6,Sheet1!$B6:$E6,2,FALSE),"")</f>
+        <f>IF($B6="","",(VLOOKUP($B6,Sheet1!$B6:$E6,2,FALSE)))</f>
         <v>商品５</v>
       </c>
       <c r="D6" s="1">
@@ -1036,7 +2465,7 @@
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>2700</v>
+        <v>456</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -1047,7 +2476,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="1" t="str">
-        <f>IFERROR(VLOOKUP($B7,Sheet1!$B7:$E7,2,FALSE),"")</f>
+        <f>IF($B7="","",(VLOOKUP($B7,Sheet1!$B7:$E7,2,FALSE)))</f>
         <v>商品６</v>
       </c>
       <c r="D7" s="1">
@@ -1060,7 +2489,7 @@
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>5994</v>
+        <v>675</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -1071,7 +2500,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="1" t="str">
-        <f>IFERROR(VLOOKUP($B8,Sheet1!$B8:$E8,2,FALSE),"")</f>
+        <f>IF($B8="","",(VLOOKUP($B8,Sheet1!$B8:$E8,2,FALSE)))</f>
         <v>商品７</v>
       </c>
       <c r="D8" s="1">
@@ -1084,7 +2513,7 @@
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>2331</v>
+        <v>780</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
@@ -1095,7 +2524,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="1" t="str">
-        <f>IFERROR(VLOOKUP($B9,Sheet1!$B9:$E9,2,FALSE),"")</f>
+        <f>IF($B9="","",(VLOOKUP($B9,Sheet1!$B9:$E9,2,FALSE)))</f>
         <v>商品８</v>
       </c>
       <c r="D9" s="1">
@@ -1108,7 +2537,7 @@
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>30634</v>
+        <v>935</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
@@ -1119,7 +2548,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="1" t="str">
-        <f>IFERROR(VLOOKUP($B10,Sheet1!$B10:$E10,2,FALSE),"")</f>
+        <f>IF($B10="","",(VLOOKUP($B10,Sheet1!$B10:$E10,2,FALSE)))</f>
         <v>商品９</v>
       </c>
       <c r="D10" s="1">
@@ -1132,7 +2561,7 @@
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>7500</v>
+        <v>760</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -1143,7 +2572,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="1" t="str">
-        <f>IFERROR(VLOOKUP($B11,Sheet1!$B11:$E11,2,FALSE),"")</f>
+        <f>IF($B11="","",(VLOOKUP($B11,Sheet1!$B11:$E11,2,FALSE)))</f>
         <v>商品１０</v>
       </c>
       <c r="D11" s="1">
@@ -1156,7 +2585,7 @@
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>3200</v>
+        <v>804</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
@@ -1188,4 +2617,321 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53DCE932-6A5C-472B-BF81-4D24FAFE116D}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>IF($B2="","",(VLOOKUP($B2,Sheet1!$B2:$E2,2,FALSE)))</f>
+        <v>商品１</v>
+      </c>
+      <c r="D2" s="1">
+        <f>IF($B2="","",(VLOOKUP($B2,Sheet1!$B2:$E2,3,FALSE)))</f>
+        <v>100</v>
+      </c>
+      <c r="E2" s="1">
+        <f>IFERROR(VLOOKUP($B2,Sheet1!$B2:$E2,4,FALSE),"")</f>
+        <v>50</v>
+      </c>
+      <c r="F2" s="1">
+        <f>IF(B2="","",SUM(D2:E2))</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>IF($B3="","",(VLOOKUP($B3,Sheet1!$B3:$E3,2,FALSE)))</f>
+        <v>商品２</v>
+      </c>
+      <c r="D3" s="1">
+        <f>IFERROR(VLOOKUP($B3,Sheet1!$B3:$E3,3,FALSE),"")</f>
+        <v>200</v>
+      </c>
+      <c r="E3" s="1">
+        <f>IFERROR(VLOOKUP($B3,Sheet1!$B3:$E3,4,FALSE),"")</f>
+        <v>10</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F11" si="0">IF(B3="","",SUM(D3:E3))</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>IF($B4="","",(VLOOKUP($B4,Sheet1!$B4:$E4,2,FALSE)))</f>
+        <v>商品３</v>
+      </c>
+      <c r="D4" s="1">
+        <f>IFERROR(VLOOKUP($B4,Sheet1!$B4:$E4,3,FALSE),"")</f>
+        <v>500</v>
+      </c>
+      <c r="E4" s="1">
+        <f>IFERROR(VLOOKUP($B4,Sheet1!$B4:$E4,4,FALSE),"")</f>
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f>IF($B5="","",(VLOOKUP($B5,Sheet1!$B5:$E5,2,FALSE)))</f>
+        <v>商品４</v>
+      </c>
+      <c r="D5" s="1">
+        <f>IFERROR(VLOOKUP($B5,Sheet1!$B5:$E5,3,FALSE),"")</f>
+        <v>2000</v>
+      </c>
+      <c r="E5" s="1">
+        <f>IFERROR(VLOOKUP($B5,Sheet1!$B5:$E5,4,FALSE),"")</f>
+        <v>6</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f>IF($B6="","",(VLOOKUP($B6,Sheet1!$B6:$E6,2,FALSE)))</f>
+        <v>商品５</v>
+      </c>
+      <c r="D6" s="1">
+        <f>IFERROR(VLOOKUP($B6,Sheet1!$B6:$E6,3,FALSE),"")</f>
+        <v>450</v>
+      </c>
+      <c r="E6" s="1">
+        <f>IFERROR(VLOOKUP($B6,Sheet1!$B6:$E6,4,FALSE),"")</f>
+        <v>6</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f>IF($B7="","",(VLOOKUP($B7,Sheet1!$B7:$E7,2,FALSE)))</f>
+        <v>商品６</v>
+      </c>
+      <c r="D7" s="1">
+        <f>IFERROR(VLOOKUP($B7,Sheet1!$B7:$E7,3,FALSE),"")</f>
+        <v>666</v>
+      </c>
+      <c r="E7" s="1">
+        <f>IFERROR(VLOOKUP($B7,Sheet1!$B7:$E7,4,FALSE),"")</f>
+        <v>9</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>675</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f>IF($B8="","",(VLOOKUP($B8,Sheet1!$B8:$E8,2,FALSE)))</f>
+        <v>商品７</v>
+      </c>
+      <c r="D8" s="1">
+        <f>IFERROR(VLOOKUP($B8,Sheet1!$B8:$E8,3,FALSE),"")</f>
+        <v>777</v>
+      </c>
+      <c r="E8" s="1">
+        <f>IFERROR(VLOOKUP($B8,Sheet1!$B8:$E8,4,FALSE),"")</f>
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>780</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f>IF($B9="","",(VLOOKUP($B9,Sheet1!$B9:$E9,2,FALSE)))</f>
+        <v>商品８</v>
+      </c>
+      <c r="D9" s="1">
+        <f>IFERROR(VLOOKUP($B9,Sheet1!$B9:$E9,3,FALSE),"")</f>
+        <v>901</v>
+      </c>
+      <c r="E9" s="1">
+        <f>IFERROR(VLOOKUP($B9,Sheet1!$B9:$E9,4,FALSE),"")</f>
+        <v>34</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>935</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f>IF($B10="","",(VLOOKUP($B10,Sheet1!$B10:$E10,2,FALSE)))</f>
+        <v>商品９</v>
+      </c>
+      <c r="D10" s="1">
+        <f>IFERROR(VLOOKUP($B10,Sheet1!$B10:$E10,3,FALSE),"")</f>
+        <v>750</v>
+      </c>
+      <c r="E10" s="1">
+        <f>IFERROR(VLOOKUP($B10,Sheet1!$B10:$E10,4,FALSE),"")</f>
+        <v>10</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>760</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f>IF($B11="","",(VLOOKUP($B11,Sheet1!$B11:$E11,2,FALSE)))</f>
+        <v>商品１０</v>
+      </c>
+      <c r="D11" s="1">
+        <f>IFERROR(VLOOKUP($B11,Sheet1!$B11:$E11,3,FALSE),"")</f>
+        <v>800</v>
+      </c>
+      <c r="E11" s="1">
+        <f>IFERROR(VLOOKUP($B11,Sheet1!$B11:$E11,4,FALSE),"")</f>
+        <v>4</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>804</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="F2:F11">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>800</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3 B6:B11 B5" xr:uid="{8F22FA94-FE20-46B7-8F02-E923B58619DB}">
+      <formula1>"A01,A02,A03,A04,A05,,A06,A07,A08,A09,A10"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{F55BA8D2-B610-4A88-A495-334BFBDDF3FF}">
+      <formula1>"A01,A02,A03,A04,A05,,A06,A07,A08,A09,A10"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>